--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.98327633333333</v>
+        <v>16.83279933333333</v>
       </c>
       <c r="H2">
-        <v>35.949829</v>
+        <v>50.498398</v>
       </c>
       <c r="I2">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="J2">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N2">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O2">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P2">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q2">
-        <v>371.3810665891511</v>
+        <v>589.937429344467</v>
       </c>
       <c r="R2">
-        <v>3342.42959930236</v>
+        <v>5309.436864100203</v>
       </c>
       <c r="S2">
-        <v>0.0120401441908638</v>
+        <v>0.01676374374281881</v>
       </c>
       <c r="T2">
-        <v>0.01204014419086379</v>
+        <v>0.01676374374281881</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.98327633333333</v>
+        <v>16.83279933333333</v>
       </c>
       <c r="H3">
-        <v>35.949829</v>
+        <v>50.498398</v>
       </c>
       <c r="I3">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="J3">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q3">
-        <v>358.4589684603337</v>
+        <v>503.5240544810207</v>
       </c>
       <c r="R3">
-        <v>3226.130716143003</v>
+        <v>4531.716490329186</v>
       </c>
       <c r="S3">
-        <v>0.01162121081294991</v>
+        <v>0.01430820930796758</v>
       </c>
       <c r="T3">
-        <v>0.01162121081294991</v>
+        <v>0.01430820930796758</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.98327633333333</v>
+        <v>16.83279933333333</v>
       </c>
       <c r="H4">
-        <v>35.949829</v>
+        <v>50.498398</v>
       </c>
       <c r="I4">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="J4">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N4">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O4">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P4">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q4">
-        <v>72.54335167152132</v>
+        <v>150.0093235263149</v>
       </c>
       <c r="R4">
-        <v>652.8901650436919</v>
+        <v>1350.083911736834</v>
       </c>
       <c r="S4">
-        <v>0.002351849603523035</v>
+        <v>0.004262685724862508</v>
       </c>
       <c r="T4">
-        <v>0.002351849603523035</v>
+        <v>0.004262685724862507</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.98327633333333</v>
+        <v>16.83279933333333</v>
       </c>
       <c r="H5">
-        <v>35.949829</v>
+        <v>50.498398</v>
       </c>
       <c r="I5">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="J5">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N5">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q5">
-        <v>229.482354137574</v>
+        <v>298.9985176927656</v>
       </c>
       <c r="R5">
-        <v>2065.341187238166</v>
+        <v>2690.98665923489</v>
       </c>
       <c r="S5">
-        <v>0.007439799391097914</v>
+        <v>0.008496383312470712</v>
       </c>
       <c r="T5">
-        <v>0.007439799391097912</v>
+        <v>0.00849638331247071</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>997.1180420000001</v>
       </c>
       <c r="I6">
-        <v>0.9278651602470024</v>
+        <v>0.8654671168650652</v>
       </c>
       <c r="J6">
-        <v>0.9278651602470025</v>
+        <v>0.8654671168650654</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N6">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O6">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P6">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q6">
-        <v>10300.76560178481</v>
+        <v>11648.63199126571</v>
       </c>
       <c r="R6">
-        <v>92706.89041606328</v>
+        <v>104837.6879213914</v>
       </c>
       <c r="S6">
-        <v>0.3339499890525706</v>
+        <v>0.3310091408727311</v>
       </c>
       <c r="T6">
-        <v>0.3339499890525705</v>
+        <v>0.3310091408727311</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>997.1180420000001</v>
       </c>
       <c r="I7">
-        <v>0.9278651602470024</v>
+        <v>0.8654671168650652</v>
       </c>
       <c r="J7">
-        <v>0.9278651602470025</v>
+        <v>0.8654671168650654</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q7">
         <v>9942.3534050331</v>
@@ -883,10 +883,10 @@
         <v>89481.18064529789</v>
       </c>
       <c r="S7">
-        <v>0.3223302945746375</v>
+        <v>0.2825232921188273</v>
       </c>
       <c r="T7">
-        <v>0.3223302945746375</v>
+        <v>0.2825232921188274</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>997.1180420000001</v>
       </c>
       <c r="I8">
-        <v>0.9278651602470024</v>
+        <v>0.8654671168650652</v>
       </c>
       <c r="J8">
-        <v>0.9278651602470025</v>
+        <v>0.8654671168650654</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N8">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O8">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P8">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q8">
-        <v>2012.08981491469</v>
+        <v>2962.014813941298</v>
       </c>
       <c r="R8">
-        <v>18108.80833423221</v>
+        <v>26658.13332547169</v>
       </c>
       <c r="S8">
-        <v>0.0652317893290498</v>
+        <v>0.08416902341409432</v>
       </c>
       <c r="T8">
-        <v>0.0652317893290498</v>
+        <v>0.08416902341409434</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>997.1180420000001</v>
       </c>
       <c r="I9">
-        <v>0.9278651602470024</v>
+        <v>0.8654671168650652</v>
       </c>
       <c r="J9">
-        <v>0.9278651602470025</v>
+        <v>0.8654671168650654</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N9">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q9">
-        <v>6365.009292011053</v>
+        <v>5903.886624734368</v>
       </c>
       <c r="R9">
-        <v>57285.08362809948</v>
+        <v>53134.97962260932</v>
       </c>
       <c r="S9">
-        <v>0.2063530872907447</v>
+        <v>0.1677656604594124</v>
       </c>
       <c r="T9">
-        <v>0.2063530872907446</v>
+        <v>0.1677656604594124</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.77014866666667</v>
+        <v>34.50825133333333</v>
       </c>
       <c r="H10">
-        <v>41.310446</v>
+        <v>103.524754</v>
       </c>
       <c r="I10">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594501</v>
       </c>
       <c r="J10">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594502</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N10">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O10">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P10">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q10">
-        <v>426.7591230198489</v>
+        <v>1209.40722215145</v>
       </c>
       <c r="R10">
-        <v>3840.83210717864</v>
+        <v>10884.66499936305</v>
       </c>
       <c r="S10">
-        <v>0.01383549630872771</v>
+        <v>0.0343666832182351</v>
       </c>
       <c r="T10">
-        <v>0.01383549630872771</v>
+        <v>0.0343666832182351</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.77014866666667</v>
+        <v>34.50825133333333</v>
       </c>
       <c r="H11">
-        <v>41.310446</v>
+        <v>103.524754</v>
       </c>
       <c r="I11">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594501</v>
       </c>
       <c r="J11">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594502</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>89.739807</v>
       </c>
       <c r="O11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q11">
-        <v>411.9101612359913</v>
+        <v>1032.254604853609</v>
       </c>
       <c r="R11">
-        <v>3707.191451123922</v>
+        <v>9290.291443682478</v>
       </c>
       <c r="S11">
-        <v>0.01335409416670615</v>
+        <v>0.02933268989617956</v>
       </c>
       <c r="T11">
-        <v>0.01335409416670615</v>
+        <v>0.02933268989617956</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.77014866666667</v>
+        <v>34.50825133333333</v>
       </c>
       <c r="H12">
-        <v>41.310446</v>
+        <v>103.524754</v>
       </c>
       <c r="I12">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594501</v>
       </c>
       <c r="J12">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594502</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N12">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O12">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P12">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q12">
-        <v>83.36056930577864</v>
+        <v>307.5281381355535</v>
       </c>
       <c r="R12">
-        <v>750.2451237520079</v>
+        <v>2767.753243219982</v>
       </c>
       <c r="S12">
-        <v>0.002702542925766343</v>
+        <v>0.008738762188964942</v>
       </c>
       <c r="T12">
-        <v>0.002702542925766343</v>
+        <v>0.008738762188964942</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.77014866666667</v>
+        <v>34.50825133333333</v>
       </c>
       <c r="H13">
-        <v>41.310446</v>
+        <v>103.524754</v>
       </c>
       <c r="I13">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594501</v>
       </c>
       <c r="J13">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594502</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N13">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O13">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P13">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q13">
-        <v>263.701348859076</v>
+        <v>612.9649497100522</v>
       </c>
       <c r="R13">
-        <v>2373.312139731684</v>
+        <v>5516.68454739047</v>
       </c>
       <c r="S13">
-        <v>0.00854917643688328</v>
+        <v>0.01741809695256542</v>
       </c>
       <c r="T13">
-        <v>0.00854917643688328</v>
+        <v>0.01741809695256542</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.08615933333333332</v>
+        <v>0.324754</v>
       </c>
       <c r="H14">
-        <v>0.258478</v>
+        <v>0.974262</v>
       </c>
       <c r="I14">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700705</v>
       </c>
       <c r="J14">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700706</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N14">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O14">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P14">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q14">
-        <v>2.670216743724444</v>
+        <v>11.38162085434867</v>
       </c>
       <c r="R14">
-        <v>24.03195069352</v>
+        <v>102.434587689138</v>
       </c>
       <c r="S14">
-        <v>8.656821121919917E-05</v>
+        <v>0.000323421715405034</v>
       </c>
       <c r="T14">
-        <v>8.656821121919916E-05</v>
+        <v>0.000323421715405034</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.08615933333333332</v>
+        <v>0.324754</v>
       </c>
       <c r="H15">
-        <v>0.258478</v>
+        <v>0.974262</v>
       </c>
       <c r="I15">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700705</v>
       </c>
       <c r="J15">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700706</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>89.739807</v>
       </c>
       <c r="O15">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P15">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q15">
-        <v>2.577307314860666</v>
+        <v>9.714453760826</v>
       </c>
       <c r="R15">
-        <v>23.195765833746</v>
+        <v>87.43008384743399</v>
       </c>
       <c r="S15">
-        <v>8.355609503760552E-05</v>
+        <v>0.0002760472642478502</v>
       </c>
       <c r="T15">
-        <v>8.355609503760552E-05</v>
+        <v>0.0002760472642478502</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.08615933333333332</v>
+        <v>0.324754</v>
       </c>
       <c r="H16">
-        <v>0.258478</v>
+        <v>0.974262</v>
       </c>
       <c r="I16">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700705</v>
       </c>
       <c r="J16">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700706</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N16">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O16">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P16">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q16">
-        <v>0.5215841347493332</v>
+        <v>2.894119206660666</v>
       </c>
       <c r="R16">
-        <v>4.694257212743999</v>
+        <v>26.047072859946</v>
       </c>
       <c r="S16">
-        <v>1.690971553214973E-05</v>
+        <v>8.223969242897559E-05</v>
       </c>
       <c r="T16">
-        <v>1.690971553214973E-05</v>
+        <v>8.223969242897559E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.08615933333333332</v>
+        <v>0.324754</v>
       </c>
       <c r="H17">
-        <v>0.258478</v>
+        <v>0.974262</v>
       </c>
       <c r="I17">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700705</v>
       </c>
       <c r="J17">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700706</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N17">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O17">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P17">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q17">
-        <v>1.649970016068</v>
+        <v>5.768557130156666</v>
       </c>
       <c r="R17">
-        <v>14.849730144612</v>
+        <v>51.91701417141</v>
       </c>
       <c r="S17">
-        <v>5.349189469057576E-05</v>
+        <v>0.0001639201187882106</v>
       </c>
       <c r="T17">
-        <v>5.349189469057575E-05</v>
+        <v>0.0001639201187882106</v>
       </c>
     </row>
   </sheetData>
